--- a/biology/Zoologie/Attaleachernes_thaleri/Attaleachernes_thaleri.xlsx
+++ b/biology/Zoologie/Attaleachernes_thaleri/Attaleachernes_thaleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attaleachernes thaleri, unique représentant du genre Attaleachernes, est une espèce de pseudoscorpions de la famille des Chernetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mato Grosso au Brésil[1]. Elle se rencontre vers Poconé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mato Grosso au Brésil. Elle se rencontre vers Poconé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce pseudoscorpion se rencontre sur le palmier Attalea phalerata[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce pseudoscorpion se rencontre sur le palmier Attalea phalerata.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace des mâles mesure de 0,74 à 0,85 mm et la carapace des femelles de 0,70 à 0,87 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace des mâles mesure de 0,74 à 0,85 mm et la carapace des femelles de 0,70 à 0,87 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Konrad Thaler[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Konrad Thaler.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Mahnert, 2009 : Attaleachernes gen. nov., a new Chernetid genus from palm trees in the Brazilian Pantanal (Pseudoscorpiones: Chernetidae). Contributions to Natural History, vol. 12, no 2, p. 921-930 (texte intégral).</t>
         </is>
